--- a/assets/interview.xlsx
+++ b/assets/interview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bungkai\CDS project\cds-indexing\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5073758D-0901-432B-A646-D3940EC5CB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5315C4-A169-433C-B16F-1F4C87290FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="7" r:id="rId1"/>
@@ -6368,8 +6368,8 @@
   <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="196" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7964,6 +7964,12 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -7971,12 +7977,6 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -9686,12 +9686,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -9699,6 +9693,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -11343,12 +11343,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -11356,6 +11350,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -12982,12 +12982,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -12995,6 +12989,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -14713,12 +14713,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -14726,6 +14720,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -16421,12 +16421,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -16434,6 +16428,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -18059,12 +18059,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -18072,6 +18066,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -19642,12 +19642,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -19655,6 +19649,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -21318,12 +21318,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -21331,6 +21325,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -22946,12 +22946,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -22959,6 +22953,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -22974,8 +22974,8 @@
   </sheetPr>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
@@ -24666,12 +24666,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -24679,6 +24673,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -24695,8 +24695,8 @@
   <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25982,12 +25982,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -25995,6 +25989,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -27702,12 +27702,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -27715,6 +27709,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -29288,12 +29288,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -29301,6 +29295,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -30961,6 +30961,12 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -30968,12 +30974,6 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -32636,6 +32636,12 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -32643,12 +32649,6 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -34325,12 +34325,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -34338,6 +34332,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -34384,8 +34384,8 @@
   <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35971,12 +35971,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -35984,6 +35978,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -36000,9 +36000,9 @@
   </sheetPr>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37714,12 +37714,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -37727,6 +37721,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -39382,12 +39382,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -39395,6 +39389,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -41113,12 +41113,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -41126,6 +41120,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -42731,12 +42731,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -42744,6 +42738,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -44337,12 +44337,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -44350,6 +44344,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -45955,12 +45955,6 @@
   <autoFilter ref="A1:D149" xr:uid="{41A87C6F-96D7-409F-A749-9243ED8ADF0E}"/>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A85:A99"/>
     <mergeCell ref="A100:A114"/>
@@ -45968,6 +45962,12 @@
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A125:A137"/>
     <mergeCell ref="A138:A144"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A71"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
